--- a/Data_Aquisition/Test data.xlsx
+++ b/Data_Aquisition/Test data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projet\Compagnie\GitKraken\Mr.DriveShaft\Data_Aquisition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D52306DB-BFF6-4429-A45A-1A9DA582DB75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D102981C-B88E-408D-820D-CEF038CF3990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{21DA9C7F-F497-48A6-AAC8-B370F6CFF2C9}"/>
+    <workbookView xWindow="28680" yWindow="225" windowWidth="25440" windowHeight="15390" activeTab="7" xr2:uid="{21DA9C7F-F497-48A6-AAC8-B370F6CFF2C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Feuil5" sheetId="5" r:id="rId5"/>
     <sheet name="Feuil6" sheetId="6" r:id="rId6"/>
     <sheet name="NEW_CODE" sheetId="7" r:id="rId7"/>
-    <sheet name="Feuil8" sheetId="8" r:id="rId8"/>
+    <sheet name="RISING" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,12 +97,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,8 +123,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14772,13 +14779,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -14808,13 +14821,19 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -15439,13 +15458,19 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -16070,13 +16095,19 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -16701,13 +16732,19 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -17332,13 +17369,19 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -17963,13 +18006,19 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -18594,7 +18643,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
@@ -18602,7 +18651,13 @@
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -19227,7 +19282,7 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
@@ -19235,7 +19290,13 @@
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -19860,7 +19921,7 @@
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
@@ -19868,7 +19929,13 @@
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -20493,7 +20560,7 @@
           <c:idx val="9"/>
           <c:order val="9"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
@@ -20501,7 +20568,13 @@
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -21149,9 +21222,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -21165,9 +21238,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -21196,9 +21268,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -21224,9 +21296,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -21266,9 +21337,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -21285,17 +21355,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -21396,304 +21477,304 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil8!$A$2:$A$97</c:f>
+              <c:f>RISING!$A$2:$A$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>15.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>22.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>26.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>30.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>34.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>41.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>45.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>49.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>53.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>60.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>64.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>68.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>72.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>79.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>83.6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>87.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>91.2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>98.8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>102.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>106.4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>110.2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31</c:v>
+                  <c:v>117.8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32</c:v>
+                  <c:v>121.6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33</c:v>
+                  <c:v>125.4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34</c:v>
+                  <c:v>129.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36</c:v>
+                  <c:v>136.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37</c:v>
+                  <c:v>140.6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38</c:v>
+                  <c:v>144.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39</c:v>
+                  <c:v>148.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41</c:v>
+                  <c:v>155.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42</c:v>
+                  <c:v>159.6</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43</c:v>
+                  <c:v>163.4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44</c:v>
+                  <c:v>167.2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46</c:v>
+                  <c:v>174.8</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47</c:v>
+                  <c:v>178.6</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48</c:v>
+                  <c:v>182.4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49</c:v>
+                  <c:v>186.2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51</c:v>
+                  <c:v>193.8</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>52</c:v>
+                  <c:v>197.6</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53</c:v>
+                  <c:v>201.4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>54</c:v>
+                  <c:v>205.2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>55</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>56</c:v>
+                  <c:v>212.8</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>57</c:v>
+                  <c:v>216.6</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>58</c:v>
+                  <c:v>220.4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>59</c:v>
+                  <c:v>224.2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>60</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>61</c:v>
+                  <c:v>231.8</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>62</c:v>
+                  <c:v>235.6</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>63</c:v>
+                  <c:v>239.4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>64</c:v>
+                  <c:v>243.2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>65</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>66</c:v>
+                  <c:v>250.8</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>67</c:v>
+                  <c:v>254.6</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>68</c:v>
+                  <c:v>258.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>69</c:v>
+                  <c:v>262.2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>70</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>71</c:v>
+                  <c:v>269.8</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>72</c:v>
+                  <c:v>273.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>73</c:v>
+                  <c:v>277.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>74</c:v>
+                  <c:v>281.2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>75</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>76</c:v>
+                  <c:v>288.8</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>77</c:v>
+                  <c:v>292.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>78</c:v>
+                  <c:v>296.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>79</c:v>
+                  <c:v>300.2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>80</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>81</c:v>
+                  <c:v>307.8</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>82</c:v>
+                  <c:v>311.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>83</c:v>
+                  <c:v>315.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>84</c:v>
+                  <c:v>319.2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>85</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>86</c:v>
+                  <c:v>326.8</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>87</c:v>
+                  <c:v>330.6</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>88</c:v>
+                  <c:v>334.4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>89</c:v>
+                  <c:v>338.2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>90</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>91</c:v>
+                  <c:v>345.8</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>92</c:v>
+                  <c:v>349.6</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>93</c:v>
+                  <c:v>353.4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>94</c:v>
+                  <c:v>357.2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>95</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>96</c:v>
+                  <c:v>364.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil8!$B$2:$B$97</c:f>
+              <c:f>RISING!$B$2:$B$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -22015,304 +22096,304 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil8!$A$2:$A$97</c:f>
+              <c:f>RISING!$A$2:$A$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>15.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>22.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>26.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>30.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>34.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>41.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>45.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>49.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>53.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>60.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>64.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>68.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>72.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>79.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>83.6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>87.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>91.2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>98.8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>102.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>106.4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>110.2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31</c:v>
+                  <c:v>117.8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32</c:v>
+                  <c:v>121.6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33</c:v>
+                  <c:v>125.4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34</c:v>
+                  <c:v>129.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36</c:v>
+                  <c:v>136.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37</c:v>
+                  <c:v>140.6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38</c:v>
+                  <c:v>144.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39</c:v>
+                  <c:v>148.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41</c:v>
+                  <c:v>155.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42</c:v>
+                  <c:v>159.6</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43</c:v>
+                  <c:v>163.4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44</c:v>
+                  <c:v>167.2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46</c:v>
+                  <c:v>174.8</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47</c:v>
+                  <c:v>178.6</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48</c:v>
+                  <c:v>182.4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49</c:v>
+                  <c:v>186.2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51</c:v>
+                  <c:v>193.8</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>52</c:v>
+                  <c:v>197.6</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53</c:v>
+                  <c:v>201.4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>54</c:v>
+                  <c:v>205.2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>55</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>56</c:v>
+                  <c:v>212.8</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>57</c:v>
+                  <c:v>216.6</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>58</c:v>
+                  <c:v>220.4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>59</c:v>
+                  <c:v>224.2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>60</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>61</c:v>
+                  <c:v>231.8</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>62</c:v>
+                  <c:v>235.6</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>63</c:v>
+                  <c:v>239.4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>64</c:v>
+                  <c:v>243.2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>65</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>66</c:v>
+                  <c:v>250.8</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>67</c:v>
+                  <c:v>254.6</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>68</c:v>
+                  <c:v>258.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>69</c:v>
+                  <c:v>262.2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>70</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>71</c:v>
+                  <c:v>269.8</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>72</c:v>
+                  <c:v>273.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>73</c:v>
+                  <c:v>277.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>74</c:v>
+                  <c:v>281.2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>75</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>76</c:v>
+                  <c:v>288.8</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>77</c:v>
+                  <c:v>292.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>78</c:v>
+                  <c:v>296.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>79</c:v>
+                  <c:v>300.2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>80</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>81</c:v>
+                  <c:v>307.8</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>82</c:v>
+                  <c:v>311.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>83</c:v>
+                  <c:v>315.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>84</c:v>
+                  <c:v>319.2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>85</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>86</c:v>
+                  <c:v>326.8</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>87</c:v>
+                  <c:v>330.6</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>88</c:v>
+                  <c:v>334.4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>89</c:v>
+                  <c:v>338.2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>90</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>91</c:v>
+                  <c:v>345.8</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>92</c:v>
+                  <c:v>349.6</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>93</c:v>
+                  <c:v>353.4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>94</c:v>
+                  <c:v>357.2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>95</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>96</c:v>
+                  <c:v>364.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil8!$C$2:$C$97</c:f>
+              <c:f>RISING!$C$2:$C$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -22634,304 +22715,304 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil8!$A$2:$A$97</c:f>
+              <c:f>RISING!$A$2:$A$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>15.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>22.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>26.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>30.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>34.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>41.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>45.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>49.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>53.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>60.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>64.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>68.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>72.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>79.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>83.6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>87.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>91.2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>98.8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>102.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>106.4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>110.2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31</c:v>
+                  <c:v>117.8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32</c:v>
+                  <c:v>121.6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33</c:v>
+                  <c:v>125.4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34</c:v>
+                  <c:v>129.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36</c:v>
+                  <c:v>136.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37</c:v>
+                  <c:v>140.6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38</c:v>
+                  <c:v>144.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39</c:v>
+                  <c:v>148.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41</c:v>
+                  <c:v>155.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42</c:v>
+                  <c:v>159.6</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43</c:v>
+                  <c:v>163.4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44</c:v>
+                  <c:v>167.2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46</c:v>
+                  <c:v>174.8</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47</c:v>
+                  <c:v>178.6</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48</c:v>
+                  <c:v>182.4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49</c:v>
+                  <c:v>186.2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51</c:v>
+                  <c:v>193.8</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>52</c:v>
+                  <c:v>197.6</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53</c:v>
+                  <c:v>201.4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>54</c:v>
+                  <c:v>205.2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>55</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>56</c:v>
+                  <c:v>212.8</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>57</c:v>
+                  <c:v>216.6</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>58</c:v>
+                  <c:v>220.4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>59</c:v>
+                  <c:v>224.2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>60</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>61</c:v>
+                  <c:v>231.8</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>62</c:v>
+                  <c:v>235.6</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>63</c:v>
+                  <c:v>239.4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>64</c:v>
+                  <c:v>243.2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>65</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>66</c:v>
+                  <c:v>250.8</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>67</c:v>
+                  <c:v>254.6</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>68</c:v>
+                  <c:v>258.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>69</c:v>
+                  <c:v>262.2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>70</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>71</c:v>
+                  <c:v>269.8</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>72</c:v>
+                  <c:v>273.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>73</c:v>
+                  <c:v>277.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>74</c:v>
+                  <c:v>281.2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>75</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>76</c:v>
+                  <c:v>288.8</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>77</c:v>
+                  <c:v>292.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>78</c:v>
+                  <c:v>296.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>79</c:v>
+                  <c:v>300.2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>80</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>81</c:v>
+                  <c:v>307.8</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>82</c:v>
+                  <c:v>311.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>83</c:v>
+                  <c:v>315.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>84</c:v>
+                  <c:v>319.2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>85</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>86</c:v>
+                  <c:v>326.8</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>87</c:v>
+                  <c:v>330.6</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>88</c:v>
+                  <c:v>334.4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>89</c:v>
+                  <c:v>338.2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>90</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>91</c:v>
+                  <c:v>345.8</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>92</c:v>
+                  <c:v>349.6</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>93</c:v>
+                  <c:v>353.4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>94</c:v>
+                  <c:v>357.2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>95</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>96</c:v>
+                  <c:v>364.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil8!$D$2:$D$97</c:f>
+              <c:f>RISING!$D$2:$D$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -23253,304 +23334,304 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil8!$A$2:$A$97</c:f>
+              <c:f>RISING!$A$2:$A$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>15.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>22.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>26.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>30.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>34.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>41.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>45.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>49.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>53.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>60.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>64.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>68.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>72.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>79.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>83.6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>87.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>91.2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>98.8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>102.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>106.4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>110.2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31</c:v>
+                  <c:v>117.8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32</c:v>
+                  <c:v>121.6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33</c:v>
+                  <c:v>125.4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34</c:v>
+                  <c:v>129.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36</c:v>
+                  <c:v>136.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37</c:v>
+                  <c:v>140.6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38</c:v>
+                  <c:v>144.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39</c:v>
+                  <c:v>148.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41</c:v>
+                  <c:v>155.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42</c:v>
+                  <c:v>159.6</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43</c:v>
+                  <c:v>163.4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44</c:v>
+                  <c:v>167.2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46</c:v>
+                  <c:v>174.8</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47</c:v>
+                  <c:v>178.6</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48</c:v>
+                  <c:v>182.4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49</c:v>
+                  <c:v>186.2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51</c:v>
+                  <c:v>193.8</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>52</c:v>
+                  <c:v>197.6</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53</c:v>
+                  <c:v>201.4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>54</c:v>
+                  <c:v>205.2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>55</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>56</c:v>
+                  <c:v>212.8</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>57</c:v>
+                  <c:v>216.6</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>58</c:v>
+                  <c:v>220.4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>59</c:v>
+                  <c:v>224.2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>60</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>61</c:v>
+                  <c:v>231.8</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>62</c:v>
+                  <c:v>235.6</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>63</c:v>
+                  <c:v>239.4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>64</c:v>
+                  <c:v>243.2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>65</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>66</c:v>
+                  <c:v>250.8</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>67</c:v>
+                  <c:v>254.6</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>68</c:v>
+                  <c:v>258.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>69</c:v>
+                  <c:v>262.2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>70</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>71</c:v>
+                  <c:v>269.8</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>72</c:v>
+                  <c:v>273.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>73</c:v>
+                  <c:v>277.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>74</c:v>
+                  <c:v>281.2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>75</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>76</c:v>
+                  <c:v>288.8</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>77</c:v>
+                  <c:v>292.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>78</c:v>
+                  <c:v>296.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>79</c:v>
+                  <c:v>300.2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>80</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>81</c:v>
+                  <c:v>307.8</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>82</c:v>
+                  <c:v>311.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>83</c:v>
+                  <c:v>315.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>84</c:v>
+                  <c:v>319.2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>85</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>86</c:v>
+                  <c:v>326.8</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>87</c:v>
+                  <c:v>330.6</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>88</c:v>
+                  <c:v>334.4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>89</c:v>
+                  <c:v>338.2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>90</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>91</c:v>
+                  <c:v>345.8</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>92</c:v>
+                  <c:v>349.6</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>93</c:v>
+                  <c:v>353.4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>94</c:v>
+                  <c:v>357.2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>95</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>96</c:v>
+                  <c:v>364.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil8!$E$2:$E$97</c:f>
+              <c:f>RISING!$E$2:$E$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -23872,304 +23953,304 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil8!$A$2:$A$97</c:f>
+              <c:f>RISING!$A$2:$A$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>15.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>22.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>26.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>30.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>34.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>41.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>45.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>49.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>53.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>60.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>64.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>68.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>72.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>79.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>83.6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>87.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>91.2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>98.8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>102.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>106.4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>110.2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31</c:v>
+                  <c:v>117.8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32</c:v>
+                  <c:v>121.6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33</c:v>
+                  <c:v>125.4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34</c:v>
+                  <c:v>129.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36</c:v>
+                  <c:v>136.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37</c:v>
+                  <c:v>140.6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38</c:v>
+                  <c:v>144.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39</c:v>
+                  <c:v>148.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41</c:v>
+                  <c:v>155.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42</c:v>
+                  <c:v>159.6</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43</c:v>
+                  <c:v>163.4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44</c:v>
+                  <c:v>167.2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46</c:v>
+                  <c:v>174.8</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47</c:v>
+                  <c:v>178.6</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48</c:v>
+                  <c:v>182.4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49</c:v>
+                  <c:v>186.2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51</c:v>
+                  <c:v>193.8</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>52</c:v>
+                  <c:v>197.6</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53</c:v>
+                  <c:v>201.4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>54</c:v>
+                  <c:v>205.2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>55</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>56</c:v>
+                  <c:v>212.8</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>57</c:v>
+                  <c:v>216.6</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>58</c:v>
+                  <c:v>220.4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>59</c:v>
+                  <c:v>224.2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>60</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>61</c:v>
+                  <c:v>231.8</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>62</c:v>
+                  <c:v>235.6</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>63</c:v>
+                  <c:v>239.4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>64</c:v>
+                  <c:v>243.2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>65</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>66</c:v>
+                  <c:v>250.8</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>67</c:v>
+                  <c:v>254.6</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>68</c:v>
+                  <c:v>258.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>69</c:v>
+                  <c:v>262.2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>70</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>71</c:v>
+                  <c:v>269.8</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>72</c:v>
+                  <c:v>273.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>73</c:v>
+                  <c:v>277.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>74</c:v>
+                  <c:v>281.2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>75</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>76</c:v>
+                  <c:v>288.8</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>77</c:v>
+                  <c:v>292.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>78</c:v>
+                  <c:v>296.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>79</c:v>
+                  <c:v>300.2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>80</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>81</c:v>
+                  <c:v>307.8</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>82</c:v>
+                  <c:v>311.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>83</c:v>
+                  <c:v>315.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>84</c:v>
+                  <c:v>319.2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>85</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>86</c:v>
+                  <c:v>326.8</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>87</c:v>
+                  <c:v>330.6</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>88</c:v>
+                  <c:v>334.4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>89</c:v>
+                  <c:v>338.2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>90</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>91</c:v>
+                  <c:v>345.8</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>92</c:v>
+                  <c:v>349.6</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>93</c:v>
+                  <c:v>353.4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>94</c:v>
+                  <c:v>357.2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>95</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>96</c:v>
+                  <c:v>364.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil8!$F$2:$F$97</c:f>
+              <c:f>RISING!$F$2:$F$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -24494,304 +24575,304 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil8!$A$2:$A$97</c:f>
+              <c:f>RISING!$A$2:$A$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>15.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>22.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>26.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>30.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>34.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>41.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>45.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>49.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>53.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>60.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>64.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>68.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>72.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>79.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>83.6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>87.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>91.2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>98.8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>102.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>106.4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>110.2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31</c:v>
+                  <c:v>117.8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32</c:v>
+                  <c:v>121.6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33</c:v>
+                  <c:v>125.4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34</c:v>
+                  <c:v>129.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36</c:v>
+                  <c:v>136.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37</c:v>
+                  <c:v>140.6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38</c:v>
+                  <c:v>144.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39</c:v>
+                  <c:v>148.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41</c:v>
+                  <c:v>155.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42</c:v>
+                  <c:v>159.6</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43</c:v>
+                  <c:v>163.4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44</c:v>
+                  <c:v>167.2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46</c:v>
+                  <c:v>174.8</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47</c:v>
+                  <c:v>178.6</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48</c:v>
+                  <c:v>182.4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49</c:v>
+                  <c:v>186.2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51</c:v>
+                  <c:v>193.8</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>52</c:v>
+                  <c:v>197.6</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53</c:v>
+                  <c:v>201.4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>54</c:v>
+                  <c:v>205.2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>55</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>56</c:v>
+                  <c:v>212.8</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>57</c:v>
+                  <c:v>216.6</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>58</c:v>
+                  <c:v>220.4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>59</c:v>
+                  <c:v>224.2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>60</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>61</c:v>
+                  <c:v>231.8</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>62</c:v>
+                  <c:v>235.6</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>63</c:v>
+                  <c:v>239.4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>64</c:v>
+                  <c:v>243.2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>65</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>66</c:v>
+                  <c:v>250.8</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>67</c:v>
+                  <c:v>254.6</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>68</c:v>
+                  <c:v>258.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>69</c:v>
+                  <c:v>262.2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>70</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>71</c:v>
+                  <c:v>269.8</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>72</c:v>
+                  <c:v>273.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>73</c:v>
+                  <c:v>277.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>74</c:v>
+                  <c:v>281.2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>75</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>76</c:v>
+                  <c:v>288.8</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>77</c:v>
+                  <c:v>292.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>78</c:v>
+                  <c:v>296.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>79</c:v>
+                  <c:v>300.2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>80</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>81</c:v>
+                  <c:v>307.8</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>82</c:v>
+                  <c:v>311.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>83</c:v>
+                  <c:v>315.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>84</c:v>
+                  <c:v>319.2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>85</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>86</c:v>
+                  <c:v>326.8</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>87</c:v>
+                  <c:v>330.6</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>88</c:v>
+                  <c:v>334.4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>89</c:v>
+                  <c:v>338.2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>90</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>91</c:v>
+                  <c:v>345.8</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>92</c:v>
+                  <c:v>349.6</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>93</c:v>
+                  <c:v>353.4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>94</c:v>
+                  <c:v>357.2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>95</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>96</c:v>
+                  <c:v>364.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil8!$G$2:$G$97</c:f>
+              <c:f>RISING!$G$2:$G$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -25118,304 +25199,304 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil8!$A$2:$A$97</c:f>
+              <c:f>RISING!$A$2:$A$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>15.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>22.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>26.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>30.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>34.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>41.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>45.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>49.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>53.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>60.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>64.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>68.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>72.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>79.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>83.6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>87.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>91.2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>98.8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>102.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>106.4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>110.2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31</c:v>
+                  <c:v>117.8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32</c:v>
+                  <c:v>121.6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33</c:v>
+                  <c:v>125.4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34</c:v>
+                  <c:v>129.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36</c:v>
+                  <c:v>136.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37</c:v>
+                  <c:v>140.6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38</c:v>
+                  <c:v>144.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39</c:v>
+                  <c:v>148.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41</c:v>
+                  <c:v>155.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42</c:v>
+                  <c:v>159.6</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43</c:v>
+                  <c:v>163.4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44</c:v>
+                  <c:v>167.2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46</c:v>
+                  <c:v>174.8</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47</c:v>
+                  <c:v>178.6</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48</c:v>
+                  <c:v>182.4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49</c:v>
+                  <c:v>186.2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51</c:v>
+                  <c:v>193.8</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>52</c:v>
+                  <c:v>197.6</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53</c:v>
+                  <c:v>201.4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>54</c:v>
+                  <c:v>205.2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>55</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>56</c:v>
+                  <c:v>212.8</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>57</c:v>
+                  <c:v>216.6</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>58</c:v>
+                  <c:v>220.4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>59</c:v>
+                  <c:v>224.2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>60</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>61</c:v>
+                  <c:v>231.8</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>62</c:v>
+                  <c:v>235.6</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>63</c:v>
+                  <c:v>239.4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>64</c:v>
+                  <c:v>243.2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>65</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>66</c:v>
+                  <c:v>250.8</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>67</c:v>
+                  <c:v>254.6</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>68</c:v>
+                  <c:v>258.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>69</c:v>
+                  <c:v>262.2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>70</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>71</c:v>
+                  <c:v>269.8</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>72</c:v>
+                  <c:v>273.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>73</c:v>
+                  <c:v>277.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>74</c:v>
+                  <c:v>281.2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>75</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>76</c:v>
+                  <c:v>288.8</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>77</c:v>
+                  <c:v>292.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>78</c:v>
+                  <c:v>296.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>79</c:v>
+                  <c:v>300.2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>80</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>81</c:v>
+                  <c:v>307.8</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>82</c:v>
+                  <c:v>311.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>83</c:v>
+                  <c:v>315.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>84</c:v>
+                  <c:v>319.2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>85</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>86</c:v>
+                  <c:v>326.8</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>87</c:v>
+                  <c:v>330.6</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>88</c:v>
+                  <c:v>334.4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>89</c:v>
+                  <c:v>338.2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>90</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>91</c:v>
+                  <c:v>345.8</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>92</c:v>
+                  <c:v>349.6</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>93</c:v>
+                  <c:v>353.4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>94</c:v>
+                  <c:v>357.2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>95</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>96</c:v>
+                  <c:v>364.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil8!$H$2:$H$97</c:f>
+              <c:f>RISING!$H$2:$H$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -25742,304 +25823,304 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil8!$A$2:$A$97</c:f>
+              <c:f>RISING!$A$2:$A$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>15.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>22.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>26.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>30.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>34.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>41.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>45.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>49.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>53.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>60.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>64.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>68.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>72.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>79.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>83.6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>87.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>91.2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>98.8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>102.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>106.4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>110.2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31</c:v>
+                  <c:v>117.8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32</c:v>
+                  <c:v>121.6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33</c:v>
+                  <c:v>125.4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34</c:v>
+                  <c:v>129.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36</c:v>
+                  <c:v>136.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37</c:v>
+                  <c:v>140.6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38</c:v>
+                  <c:v>144.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39</c:v>
+                  <c:v>148.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41</c:v>
+                  <c:v>155.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42</c:v>
+                  <c:v>159.6</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43</c:v>
+                  <c:v>163.4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44</c:v>
+                  <c:v>167.2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46</c:v>
+                  <c:v>174.8</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47</c:v>
+                  <c:v>178.6</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48</c:v>
+                  <c:v>182.4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49</c:v>
+                  <c:v>186.2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51</c:v>
+                  <c:v>193.8</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>52</c:v>
+                  <c:v>197.6</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53</c:v>
+                  <c:v>201.4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>54</c:v>
+                  <c:v>205.2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>55</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>56</c:v>
+                  <c:v>212.8</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>57</c:v>
+                  <c:v>216.6</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>58</c:v>
+                  <c:v>220.4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>59</c:v>
+                  <c:v>224.2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>60</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>61</c:v>
+                  <c:v>231.8</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>62</c:v>
+                  <c:v>235.6</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>63</c:v>
+                  <c:v>239.4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>64</c:v>
+                  <c:v>243.2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>65</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>66</c:v>
+                  <c:v>250.8</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>67</c:v>
+                  <c:v>254.6</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>68</c:v>
+                  <c:v>258.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>69</c:v>
+                  <c:v>262.2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>70</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>71</c:v>
+                  <c:v>269.8</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>72</c:v>
+                  <c:v>273.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>73</c:v>
+                  <c:v>277.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>74</c:v>
+                  <c:v>281.2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>75</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>76</c:v>
+                  <c:v>288.8</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>77</c:v>
+                  <c:v>292.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>78</c:v>
+                  <c:v>296.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>79</c:v>
+                  <c:v>300.2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>80</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>81</c:v>
+                  <c:v>307.8</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>82</c:v>
+                  <c:v>311.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>83</c:v>
+                  <c:v>315.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>84</c:v>
+                  <c:v>319.2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>85</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>86</c:v>
+                  <c:v>326.8</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>87</c:v>
+                  <c:v>330.6</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>88</c:v>
+                  <c:v>334.4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>89</c:v>
+                  <c:v>338.2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>90</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>91</c:v>
+                  <c:v>345.8</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>92</c:v>
+                  <c:v>349.6</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>93</c:v>
+                  <c:v>353.4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>94</c:v>
+                  <c:v>357.2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>95</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>96</c:v>
+                  <c:v>364.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil8!$I$2:$I$97</c:f>
+              <c:f>RISING!$I$2:$I$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -26366,304 +26447,304 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil8!$A$2:$A$97</c:f>
+              <c:f>RISING!$A$2:$A$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>15.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>22.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>26.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>30.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>34.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>41.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>45.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>49.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>53.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>60.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>64.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>68.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>72.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>79.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>83.6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>87.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>91.2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>98.8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>102.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>106.4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>110.2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31</c:v>
+                  <c:v>117.8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32</c:v>
+                  <c:v>121.6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33</c:v>
+                  <c:v>125.4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34</c:v>
+                  <c:v>129.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36</c:v>
+                  <c:v>136.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37</c:v>
+                  <c:v>140.6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38</c:v>
+                  <c:v>144.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39</c:v>
+                  <c:v>148.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41</c:v>
+                  <c:v>155.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42</c:v>
+                  <c:v>159.6</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43</c:v>
+                  <c:v>163.4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44</c:v>
+                  <c:v>167.2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46</c:v>
+                  <c:v>174.8</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47</c:v>
+                  <c:v>178.6</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48</c:v>
+                  <c:v>182.4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49</c:v>
+                  <c:v>186.2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51</c:v>
+                  <c:v>193.8</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>52</c:v>
+                  <c:v>197.6</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53</c:v>
+                  <c:v>201.4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>54</c:v>
+                  <c:v>205.2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>55</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>56</c:v>
+                  <c:v>212.8</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>57</c:v>
+                  <c:v>216.6</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>58</c:v>
+                  <c:v>220.4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>59</c:v>
+                  <c:v>224.2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>60</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>61</c:v>
+                  <c:v>231.8</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>62</c:v>
+                  <c:v>235.6</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>63</c:v>
+                  <c:v>239.4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>64</c:v>
+                  <c:v>243.2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>65</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>66</c:v>
+                  <c:v>250.8</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>67</c:v>
+                  <c:v>254.6</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>68</c:v>
+                  <c:v>258.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>69</c:v>
+                  <c:v>262.2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>70</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>71</c:v>
+                  <c:v>269.8</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>72</c:v>
+                  <c:v>273.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>73</c:v>
+                  <c:v>277.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>74</c:v>
+                  <c:v>281.2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>75</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>76</c:v>
+                  <c:v>288.8</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>77</c:v>
+                  <c:v>292.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>78</c:v>
+                  <c:v>296.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>79</c:v>
+                  <c:v>300.2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>80</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>81</c:v>
+                  <c:v>307.8</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>82</c:v>
+                  <c:v>311.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>83</c:v>
+                  <c:v>315.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>84</c:v>
+                  <c:v>319.2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>85</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>86</c:v>
+                  <c:v>326.8</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>87</c:v>
+                  <c:v>330.6</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>88</c:v>
+                  <c:v>334.4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>89</c:v>
+                  <c:v>338.2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>90</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>91</c:v>
+                  <c:v>345.8</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>92</c:v>
+                  <c:v>349.6</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>93</c:v>
+                  <c:v>353.4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>94</c:v>
+                  <c:v>357.2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>95</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>96</c:v>
+                  <c:v>364.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil8!$J$2:$J$97</c:f>
+              <c:f>RISING!$J$2:$J$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -26990,304 +27071,304 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil8!$A$2:$A$97</c:f>
+              <c:f>RISING!$A$2:$A$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>15.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>22.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>26.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>30.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>34.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>41.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>45.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>49.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>53.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>60.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>64.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>68.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>72.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>79.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>83.6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>87.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>91.2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>98.8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>102.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>106.4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>110.2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31</c:v>
+                  <c:v>117.8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32</c:v>
+                  <c:v>121.6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33</c:v>
+                  <c:v>125.4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34</c:v>
+                  <c:v>129.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36</c:v>
+                  <c:v>136.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37</c:v>
+                  <c:v>140.6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38</c:v>
+                  <c:v>144.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39</c:v>
+                  <c:v>148.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41</c:v>
+                  <c:v>155.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42</c:v>
+                  <c:v>159.6</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43</c:v>
+                  <c:v>163.4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44</c:v>
+                  <c:v>167.2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46</c:v>
+                  <c:v>174.8</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47</c:v>
+                  <c:v>178.6</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48</c:v>
+                  <c:v>182.4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49</c:v>
+                  <c:v>186.2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51</c:v>
+                  <c:v>193.8</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>52</c:v>
+                  <c:v>197.6</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53</c:v>
+                  <c:v>201.4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>54</c:v>
+                  <c:v>205.2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>55</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>56</c:v>
+                  <c:v>212.8</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>57</c:v>
+                  <c:v>216.6</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>58</c:v>
+                  <c:v>220.4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>59</c:v>
+                  <c:v>224.2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>60</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>61</c:v>
+                  <c:v>231.8</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>62</c:v>
+                  <c:v>235.6</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>63</c:v>
+                  <c:v>239.4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>64</c:v>
+                  <c:v>243.2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>65</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>66</c:v>
+                  <c:v>250.8</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>67</c:v>
+                  <c:v>254.6</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>68</c:v>
+                  <c:v>258.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>69</c:v>
+                  <c:v>262.2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>70</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>71</c:v>
+                  <c:v>269.8</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>72</c:v>
+                  <c:v>273.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>73</c:v>
+                  <c:v>277.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>74</c:v>
+                  <c:v>281.2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>75</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>76</c:v>
+                  <c:v>288.8</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>77</c:v>
+                  <c:v>292.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>78</c:v>
+                  <c:v>296.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>79</c:v>
+                  <c:v>300.2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>80</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>81</c:v>
+                  <c:v>307.8</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>82</c:v>
+                  <c:v>311.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>83</c:v>
+                  <c:v>315.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>84</c:v>
+                  <c:v>319.2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>85</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>86</c:v>
+                  <c:v>326.8</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>87</c:v>
+                  <c:v>330.6</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>88</c:v>
+                  <c:v>334.4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>89</c:v>
+                  <c:v>338.2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>90</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>91</c:v>
+                  <c:v>345.8</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>92</c:v>
+                  <c:v>349.6</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>93</c:v>
+                  <c:v>353.4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>94</c:v>
+                  <c:v>357.2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>95</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>96</c:v>
+                  <c:v>364.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil8!$K$2:$K$97</c:f>
+              <c:f>RISING!$K$2:$K$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -30613,35 +30694,33 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -30649,26 +30728,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -30677,9 +30764,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -30698,14 +30784,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -30714,45 +30792,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -30764,31 +30832,29 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -30806,21 +30872,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -30830,20 +30893,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -30857,14 +30920,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -30878,9 +30941,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -30894,12 +30956,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -30911,9 +30967,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -30928,14 +30984,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -30947,14 +31002,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -30966,14 +31021,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -30982,14 +31036,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -30997,7 +31050,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -31010,11 +31063,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -31022,14 +31085,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -31041,12 +31104,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -31062,7 +31132,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -31071,9 +31140,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -31083,7 +31151,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -31091,9 +31159,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -31104,9 +31172,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -31118,12 +31185,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -31874,16 +31935,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33968,6 +34029,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{13568EAF-4B97-4F16-AB64-468D6D7946EF}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Feuil1!J4:J4</xm:f>
+              <xm:sqref>P10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{315F453D-DCC1-4927-BE0C-DBAF97F2C932}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -33981,22 +34058,6 @@
             <x14:sparkline>
               <xm:f>Feuil1!J1:J247</xm:f>
               <xm:sqref>O8</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{13568EAF-4B97-4F16-AB64-468D6D7946EF}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Feuil1!J4:J4</xm:f>
-              <xm:sqref>P10</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -40905,7 +40966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC020A2-06C4-41C6-B627-EA4E523D94A0}">
   <dimension ref="A2:K125"/>
   <sheetViews>
-    <sheetView topLeftCell="L15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="L27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
@@ -44481,15 +44542,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFFE344-686F-4E08-A3FA-87A7255E766F}">
   <dimension ref="A2:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K97"/>
+    <sheetView tabSelected="1" topLeftCell="AE52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AH64" sqref="AH64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="B2">
         <v>8.98</v>
@@ -44524,7 +44585,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>7.6</v>
       </c>
       <c r="B3">
         <v>9.5299999999999994</v>
@@ -44559,7 +44620,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>11.4</v>
       </c>
       <c r="B4">
         <v>10.18</v>
@@ -44594,7 +44655,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>15.2</v>
       </c>
       <c r="B5">
         <v>10.45</v>
@@ -44629,7 +44690,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>10.73</v>
@@ -44664,7 +44725,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>22.8</v>
       </c>
       <c r="B7">
         <v>11.83</v>
@@ -44699,7 +44760,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>26.6</v>
       </c>
       <c r="B8">
         <v>11.55</v>
@@ -44734,7 +44795,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>30.4</v>
       </c>
       <c r="B9">
         <v>13.02</v>
@@ -44769,7 +44830,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="B10">
         <v>12.93</v>
@@ -44804,7 +44865,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B11">
         <v>13.48</v>
@@ -44839,7 +44900,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>41.8</v>
       </c>
       <c r="B12">
         <v>13.94</v>
@@ -44874,7 +44935,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>45.6</v>
       </c>
       <c r="B13">
         <v>14.3</v>
@@ -44909,7 +44970,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>49.4</v>
       </c>
       <c r="B14">
         <v>14.67</v>
@@ -44942,9 +45003,9 @@
         <v>15.31</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>53.2</v>
       </c>
       <c r="B15">
         <v>14.49</v>
@@ -44973,13 +45034,13 @@
       <c r="J15">
         <v>11.92</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <v>15.95</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>14.3</v>
@@ -45014,7 +45075,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>60.8</v>
       </c>
       <c r="B17">
         <v>13.84</v>
@@ -45049,7 +45110,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="B18">
         <v>12.65</v>
@@ -45084,7 +45145,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="B19">
         <v>11.83</v>
@@ -45119,7 +45180,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>72.2</v>
       </c>
       <c r="B20">
         <v>11.64</v>
@@ -45154,7 +45215,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B21">
         <v>11</v>
@@ -45189,7 +45250,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>79.8</v>
       </c>
       <c r="B22">
         <v>11.37</v>
@@ -45224,7 +45285,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>83.6</v>
       </c>
       <c r="B23">
         <v>11.28</v>
@@ -45259,7 +45320,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>87.4</v>
       </c>
       <c r="B24">
         <v>10.54</v>
@@ -45294,7 +45355,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>91.2</v>
       </c>
       <c r="B25">
         <v>9.7200000000000006</v>
@@ -45329,7 +45390,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="B26">
         <v>9.99</v>
@@ -45364,7 +45425,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>98.8</v>
       </c>
       <c r="B27">
         <v>9.08</v>
@@ -45399,7 +45460,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>102.6</v>
       </c>
       <c r="B28">
         <v>7.52</v>
@@ -45434,7 +45495,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>106.4</v>
       </c>
       <c r="B29">
         <v>5.87</v>
@@ -45469,7 +45530,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>110.2</v>
       </c>
       <c r="B30">
         <v>5.13</v>
@@ -45504,7 +45565,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="B31">
         <v>4.4000000000000004</v>
@@ -45539,7 +45600,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>117.8</v>
       </c>
       <c r="B32">
         <v>2.84</v>
@@ -45574,7 +45635,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>121.6</v>
       </c>
       <c r="B33">
         <v>1.74</v>
@@ -45609,7 +45670,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>125.4</v>
       </c>
       <c r="B34">
         <v>1.19</v>
@@ -45644,7 +45705,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>129.19999999999999</v>
       </c>
       <c r="B35">
         <v>-0.83</v>
@@ -45679,7 +45740,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="B36">
         <v>-2.2000000000000002</v>
@@ -45714,7 +45775,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>136.80000000000001</v>
       </c>
       <c r="B37">
         <v>-1.38</v>
@@ -45749,7 +45810,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>140.6</v>
       </c>
       <c r="B38">
         <v>-1.74</v>
@@ -45784,7 +45845,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>144.4</v>
       </c>
       <c r="B39">
         <v>-2.38</v>
@@ -45819,7 +45880,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>148.19999999999999</v>
       </c>
       <c r="B40">
         <v>-2.93</v>
@@ -45854,7 +45915,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="B41">
         <v>-3.85</v>
@@ -45889,7 +45950,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="B42">
         <v>-3.85</v>
@@ -45924,7 +45985,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>159.6</v>
       </c>
       <c r="B43">
         <v>-5.41</v>
@@ -45959,7 +46020,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>163.4</v>
       </c>
       <c r="B44">
         <v>-6.33</v>
@@ -45994,7 +46055,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>167.2</v>
       </c>
       <c r="B45">
         <v>-7.33</v>
@@ -46029,7 +46090,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="B46">
         <v>-8.16</v>
@@ -46064,7 +46125,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>174.8</v>
       </c>
       <c r="B47">
         <v>-9.7200000000000006</v>
@@ -46099,7 +46160,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>178.6</v>
       </c>
       <c r="B48">
         <v>-10.27</v>
@@ -46134,7 +46195,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>182.4</v>
       </c>
       <c r="B49">
         <v>-10.36</v>
@@ -46169,7 +46230,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>186.2</v>
       </c>
       <c r="B50">
         <v>-11.64</v>
@@ -46204,7 +46265,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="B51">
         <v>-12.84</v>
@@ -46239,7 +46300,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>193.8</v>
       </c>
       <c r="B52">
         <v>-13.02</v>
@@ -46274,7 +46335,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>197.6</v>
       </c>
       <c r="B53">
         <v>-12.19</v>
@@ -46309,7 +46370,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>201.4</v>
       </c>
       <c r="B54">
         <v>-12.74</v>
@@ -46344,7 +46405,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>205.2</v>
       </c>
       <c r="B55">
         <v>-13.02</v>
@@ -46379,7 +46440,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>209</v>
       </c>
       <c r="B56">
         <v>-13.66</v>
@@ -46414,7 +46475,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>212.8</v>
       </c>
       <c r="B57">
         <v>-13.57</v>
@@ -46449,7 +46510,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>216.6</v>
       </c>
       <c r="B58">
         <v>-13.2</v>
@@ -46484,7 +46545,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>220.4</v>
       </c>
       <c r="B59">
         <v>-13.57</v>
@@ -46519,7 +46580,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>224.2</v>
       </c>
       <c r="B60">
         <v>-12.47</v>
@@ -46554,7 +46615,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>228</v>
       </c>
       <c r="B61">
         <v>-13.2</v>
@@ -46589,7 +46650,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>231.8</v>
       </c>
       <c r="B62">
         <v>-14.12</v>
@@ -46624,7 +46685,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>235.6</v>
       </c>
       <c r="B63">
         <v>-14.12</v>
@@ -46659,7 +46720,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>239.4</v>
       </c>
       <c r="B64">
         <v>-13.29</v>
@@ -46694,7 +46755,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>243.2</v>
       </c>
       <c r="B65">
         <v>-13.11</v>
@@ -46729,7 +46790,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>247</v>
       </c>
       <c r="B66">
         <v>-12.1</v>
@@ -46764,7 +46825,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>250.8</v>
       </c>
       <c r="B67">
         <v>-11.28</v>
@@ -46799,7 +46860,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>254.6</v>
       </c>
       <c r="B68">
         <v>-11.09</v>
@@ -46834,7 +46895,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>258.39999999999998</v>
       </c>
       <c r="B69">
         <v>-10.73</v>
@@ -46869,7 +46930,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>262.2</v>
       </c>
       <c r="B70">
         <v>-11.19</v>
@@ -46904,7 +46965,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>266</v>
       </c>
       <c r="B71">
         <v>-10.64</v>
@@ -46939,7 +47000,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>269.8</v>
       </c>
       <c r="B72">
         <v>-9.5299999999999994</v>
@@ -46974,7 +47035,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>273.60000000000002</v>
       </c>
       <c r="B73">
         <v>-9.35</v>
@@ -47009,7 +47070,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>277.39999999999998</v>
       </c>
       <c r="B74">
         <v>-7.98</v>
@@ -47044,7 +47105,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>281.2</v>
       </c>
       <c r="B75">
         <v>-5.32</v>
@@ -47079,7 +47140,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="B76">
         <v>-4.7699999999999996</v>
@@ -47114,7 +47175,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>288.8</v>
       </c>
       <c r="B77">
         <v>-5.13</v>
@@ -47149,7 +47210,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>292.60000000000002</v>
       </c>
       <c r="B78">
         <v>-4.68</v>
@@ -47184,7 +47245,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>296.39999999999998</v>
       </c>
       <c r="B79">
         <v>-3.39</v>
@@ -47219,7 +47280,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>79</v>
+        <v>300.2</v>
       </c>
       <c r="B80">
         <v>-2.11</v>
@@ -47254,7 +47315,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c r="B81">
         <v>-0.83</v>
@@ -47289,7 +47350,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>307.8</v>
       </c>
       <c r="B82">
         <v>0.73</v>
@@ -47324,7 +47385,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>82</v>
+        <v>311.60000000000002</v>
       </c>
       <c r="B83">
         <v>0.46</v>
@@ -47359,7 +47420,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>315.39999999999998</v>
       </c>
       <c r="B84">
         <v>-0.28000000000000003</v>
@@ -47394,7 +47455,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>319.2</v>
       </c>
       <c r="B85">
         <v>0.37</v>
@@ -47429,7 +47490,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>323</v>
       </c>
       <c r="B86">
         <v>1.65</v>
@@ -47464,7 +47525,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>86</v>
+        <v>326.8</v>
       </c>
       <c r="B87">
         <v>2.02</v>
@@ -47499,7 +47560,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>87</v>
+        <v>330.6</v>
       </c>
       <c r="B88">
         <v>3.21</v>
@@ -47534,7 +47595,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>88</v>
+        <v>334.4</v>
       </c>
       <c r="B89">
         <v>3.39</v>
@@ -47569,7 +47630,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>89</v>
+        <v>338.2</v>
       </c>
       <c r="B90">
         <v>4.3099999999999996</v>
@@ -47604,7 +47665,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>90</v>
+        <v>342</v>
       </c>
       <c r="B91">
         <v>6.05</v>
@@ -47639,7 +47700,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91</v>
+        <v>345.8</v>
       </c>
       <c r="B92">
         <v>6.14</v>
@@ -47674,7 +47735,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>92</v>
+        <v>349.6</v>
       </c>
       <c r="B93">
         <v>8.16</v>
@@ -47709,7 +47770,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>93</v>
+        <v>353.4</v>
       </c>
       <c r="B94">
         <v>9.17</v>
@@ -47744,7 +47805,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>94</v>
+        <v>357.2</v>
       </c>
       <c r="B95">
         <v>9.6300000000000008</v>
@@ -47779,7 +47840,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95</v>
+        <v>361</v>
       </c>
       <c r="B96">
         <v>10.91</v>
@@ -47814,7 +47875,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>96</v>
+        <v>364.8</v>
       </c>
       <c r="F97">
         <v>9.9</v>
@@ -47836,7 +47897,32 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="K1:K14 K16:K59 K61:K1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:J12 B16:J55 C14 B15 D15:G15 G14:H14 B13:F13 H13:I13 I15:J15 J14 B65:J1048576 C62 C63:G63 B58:J58 B57 D57:J57 E62:J62 B64:D64 F64:J64 B60:J61 B59:E59 G59:J59 B56:F56 I56 I63">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>